--- a/U业帮订单和按钮对应.xlsx
+++ b/U业帮订单和按钮对应.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoxiang/Documents/zt/code/product/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoxiang/Documents/zt/code/uye-r/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
   <si>
     <t>退课</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,10 @@
   </si>
   <si>
     <t>展示，高亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构缴费，等待确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,13 +709,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -720,11 +724,12 @@
     <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -738,46 +743,49 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="56" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="56" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -827,8 +835,11 @@
       <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -840,46 +851,49 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -894,23 +908,24 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -941,17 +956,20 @@
       <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
@@ -961,10 +979,10 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -975,8 +993,9 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>56</v>
       </c>
@@ -987,10 +1006,10 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1000,8 +1019,9 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>66</v>
       </c>
@@ -1014,21 +1034,22 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="4"/>
@@ -1046,8 +1067,9 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1067,8 +1089,9 @@
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1082,11 +1105,11 @@
         <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="G11" s="4" t="s">
         <v>41</v>
       </c>
@@ -1099,27 +1122,30 @@
       <c r="J11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4" t="s">
+      <c r="K11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="N11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1129,9 +1155,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>41</v>
       </c>
@@ -1144,21 +1168,24 @@
       <c r="J12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
         <v>48</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -1168,28 +1195,29 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="4"/>
+      <c r="P13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>61</v>
       </c>
@@ -1201,28 +1229,29 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="J14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
@@ -1235,23 +1264,24 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-      <c r="Q15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
@@ -1264,23 +1294,24 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4" t="s">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>75</v>
       </c>
@@ -1295,17 +1326,18 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -1323,8 +1355,9 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -1344,8 +1377,9 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1359,10 +1393,10 @@
         <v>41</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>52</v>
@@ -1380,7 +1414,7 @@
         <v>52</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>16</v>
@@ -1397,8 +1431,11 @@
       <c r="Q20" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1410,7 +1447,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>44</v>
@@ -1430,20 +1467,23 @@
       <c r="K21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="O21" s="4"/>
       <c r="P21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="Q21" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1453,9 +1493,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
         <v>52</v>
       </c>
@@ -1471,20 +1509,23 @@
       <c r="K22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="O22" s="4"/>
       <c r="P22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
@@ -1502,6 +1543,7 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/U业帮订单和按钮对应.xlsx
+++ b/U业帮订单和按钮对应.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="86">
   <si>
     <t>退课</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,34 @@
   </si>
   <si>
     <t>机构缴费，等待确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付保费的金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认毕业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认学员毕业，提交就业推荐信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待操作，完成后进入“机构缴费，等待确认”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待操作，完成后进入“完成学习，就业中”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -709,13 +737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1545,6 +1573,100 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
